--- a/docs/00.システム構成図.xlsx
+++ b/docs/00.システム構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\ueoka\ghq\github.com\pbueoka\PB-board\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B29B99-BC6F-416C-8F2A-13BF6C81B233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483D456-3D76-488A-AF84-3AF9D00C7A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0DEC92A9-95CC-49A5-820E-88160759A874}"/>
   </bookViews>
@@ -959,16 +959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>7840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -983,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3090334" y="2971800"/>
-          <a:ext cx="1752599" cy="685800"/>
+          <a:off x="3512099" y="2963334"/>
+          <a:ext cx="869558" cy="682037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,6 +1278,126 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>77410</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="Prisma.io + Go のチュートリアル - Qiita">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4A8C29-F411-993E-DF90-261C79547166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5283200" y="2286000"/>
+          <a:ext cx="957943" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="C#とEntity FrameworkでSQLiteを使う（System.Data.SQLiteインストール編） | 手帳.net">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19905BB8-4BFB-0F38-33DF-6C51538AA798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="18231" t="20000" r="16135" b="20000"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6804693" y="2289136"/>
+          <a:ext cx="878023" cy="454691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
